--- a/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-1,4; 4,44</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 8,19</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 6,41</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 2,0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 4,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 4,29</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>66,59%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>159,5%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>186,06%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>114,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,71%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-52,09; 383,73</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-14,96; 701,16</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 1388,99</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-64,49; 408,52</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,9; 379,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,49; 337,77</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,54; 7,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 2,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 5,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 3,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,55; 3,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,88; 1,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 4,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 2,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 2,62</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>190,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,76%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,73; 566,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,07; 218,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,81; 408,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,95; 84,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,97; 78,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,82; 31,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,99; 138,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,01; 74,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,89; 72,88</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 3,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 4,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 4,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 8,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,1; 2,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,68; 1,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 5,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 2,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,67; 2,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,36%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>255,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>263,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>174,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,01%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,27%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,1; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,38; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,29; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,23; 580,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,18; 161,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,65; 132,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,06; 479,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,29; 263,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,56; 271,82</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 2,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 4,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,09; 1,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 4,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 6,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 15,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 2,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 4,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 9,06</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,51%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,86%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,05; 171,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,08; 333,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,55; 178,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,21; 202,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,43; 280,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,32; 688,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,75; 126,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 210,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,65; 381,4</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,85</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 4,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 1,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,37; 4,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,73; 6,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,9; 1,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,03; -0,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 4,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,69; 0,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,2; 0,9</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,18%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,47%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,76%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,47%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,74; 259,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,3; 145,92</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,03; 291,41</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,0; 125,92</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,92; 27,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,83; 0,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,32; 110,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,3; 16,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,14; 26,45</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 5,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 4,9</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 3,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 5,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 5,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,83; 3,26</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 4,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 4,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 2,61</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,16%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,53%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,71%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,98; 908,65</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,95; 789,83</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,34; 615,53</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,95; 267,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,32; 261,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,97; 191,99</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,68; 252,37</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,6; 236,99</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,14; 169,95</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,56; 1,39</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 2,55</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 2,99</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 3,27</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 5,15</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,75; 6,06</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 1,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 3,31</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 3,9</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>119,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,95%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,79%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,08%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,85; 167,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,81; 288,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,3; 353,73</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,17; 183,71</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,7; 245,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,55; 304,72</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,03; 115,37</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,55; 199,37</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,78; 232,84</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 2,11</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; 1,25</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,56; 1,39</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 2,39</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 3,56</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 4,3</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 1,51</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,76</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 2,26</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,47%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,23%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,11%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,9%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,36; 78,59</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,37; 47,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,22; 51,23</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,86; 89,52</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,38; 129,68</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,1; 151,85</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,11; 48,19</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,48; 56,07</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,5; 76,39</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 1,87</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 1,49</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,91</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,64</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 2,45</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 2,67</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 1,99</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 1,74</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 2,02</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,58%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,84; 94,11</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 73,57</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,05; 98,41</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,61; 75,44</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 70,27</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,8; 76,77</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,32; 69,79</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,65; 61,64</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,55; 65,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>5,32</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,25</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,54; 4,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 8,19</t>
+          <t>0,53; 9,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,28; 9,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 2,0</t>
+          <t>-1,79; 1,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 5,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,29</t>
+          <t>0,06; 5,35</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>159,5%</t>
+          <t>175,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>337,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,14%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>173,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100,71%</t>
+          <t>115,46%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,18; 415,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 701,16</t>
+          <t>-15,44; 760,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,54; 1680,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,49; 408,52</t>
+          <t>-65,23; 401,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,85; 506,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 337,77</t>
+          <t>-14,33; 392,03</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,28</t>
+          <t>-0,02; 5,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,44</t>
+          <t>-3,81; 1,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,62</t>
+          <t>-1,5; 2,6</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>113,54%</t>
+          <t>114,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,42%</t>
+          <t>-15,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>17,89%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 408,04</t>
+          <t>-8,66; 408,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 31,18</t>
+          <t>-46,7; 31,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-27,89; 72,88</t>
+          <t>-28,9; 73,37</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,91</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 4,86</t>
+          <t>0,01; 5,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,61</t>
+          <t>-2,67; 1,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,58</t>
+          <t>-0,62; 2,69</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>263,05%</t>
+          <t>274,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,95%</t>
+          <t>-11,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>49,27%</t>
+          <t>52,62%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-90,29; —</t>
+          <t>-89,85; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,65; 132,21</t>
+          <t>-65,67; 131,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 271,82</t>
+          <t>-28,63; 272,79</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>13,35</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>7,84</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,14</t>
+          <t>-2,96; 1,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,98</t>
+          <t>-3,05; 2,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 4,2</t>
+          <t>-1,86; 3,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 15,68</t>
+          <t>-1,77; 45,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,74</t>
+          <t>-1,78; 1,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 9,06</t>
+          <t>-1,26; 33,13</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>-24,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-30,51%</t>
+          <t>-29,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>49,41%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>74,81%</t>
+          <t>378,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>31,09%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>39,86%</t>
+          <t>255,49%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,05; 171,92</t>
+          <t>-76,67; 147,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,55; 178,83</t>
+          <t>-85,05; 181,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 202,79</t>
+          <t>-43,0; 155,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 688,09</t>
+          <t>-43,24; 2563,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 126,29</t>
+          <t>-44,61; 80,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 381,4</t>
+          <t>-41,74; 1630,86</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-4,49</t>
+          <t>-4,55</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-2,18</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 4,16</t>
+          <t>-3,47; 3,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -0,45</t>
+          <t>-10,03; -0,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,9</t>
+          <t>-5,26; 0,78</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-52,9%</t>
+          <t>-53,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-35,47%</t>
+          <t>-36,74%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,03; 291,41</t>
+          <t>-69,93; 277,46</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-77,83; 0,52</t>
+          <t>-78,83; -1,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,14; 26,45</t>
+          <t>-64,59; 23,64</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 3,77</t>
+          <t>-1,84; 3,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,26</t>
+          <t>-2,83; 3,28</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,61</t>
+          <t>-1,43; 2,62</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>46,42%</t>
+          <t>47,61%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-68,34; 615,53</t>
+          <t>-69,14; 600,47</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,97; 191,99</t>
+          <t>-56,6; 191,78</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 169,95</t>
+          <t>-42,17; 164,61</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,13</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 2,99</t>
+          <t>-0,45; 3,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,06</t>
+          <t>-0,75; 5,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,9</t>
+          <t>0,12; 3,55</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>75,9%</t>
+          <t>75,13%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>119,28%</t>
+          <t>93,42%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>113,08%</t>
+          <t>95,92%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 353,73</t>
+          <t>-28,02; 364,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>22,55; 304,72</t>
+          <t>-13,72; 250,02</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>27,78; 232,84</t>
+          <t>5,77; 208,6</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 1,39</t>
+          <t>-3,79; 0,65</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,36; 4,3</t>
+          <t>0,38; 4,27</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,26</t>
+          <t>-1,45; 1,71</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-16,23%</t>
+          <t>-34,17%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>62,61%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-52,22; 51,23</t>
+          <t>-74,55; 20,34</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>5,1; 151,85</t>
+          <t>5,65; 153,08</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 76,39</t>
+          <t>-31,98; 51,7</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,91</t>
+          <t>-0,1; 1,89</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,67</t>
+          <t>0,3; 10,28</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,02</t>
+          <t>0,44; 6,25</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>60,42%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>52,11%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>6,05; 98,41</t>
+          <t>-3,77; 94,63</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>3,8; 76,77</t>
+          <t>7,34; 263,24</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>12,55; 65,64</t>
+          <t>13,49; 180,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,5</t>
+          <t>-1,44; 4,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 4,44</t>
+          <t>-1,29; 4,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 9,43</t>
+          <t>0,68; 9,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 9,32</t>
+          <t>1,99; 9,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 6,41</t>
+          <t>0,14; 6,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,95</t>
+          <t>-2,15; 2,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,83</t>
+          <t>1,21; 5,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,54</t>
+          <t>0,21; 4,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 5,35</t>
+          <t>-0,01; 5,2</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,18; 415,97</t>
+          <t>-49,51; 422,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 383,73</t>
+          <t>-44,84; 353,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 760,42</t>
+          <t>-8,78; 850,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,54; 1680,62</t>
+          <t>38,73; 1452,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 1388,99</t>
+          <t>-13,97; 1036,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,23; 401,94</t>
+          <t>-68,88; 453,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,85; 506,16</t>
+          <t>29,15; 512,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 379,68</t>
+          <t>-0,64; 417,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 392,03</t>
+          <t>-9,79; 415,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,28</t>
+          <t>1,38; 7,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,67</t>
+          <t>-1,33; 2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 5,36</t>
+          <t>0,04; 5,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 3,99</t>
+          <t>-2,27; 4,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,65</t>
+          <t>-2,44; 3,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,44</t>
+          <t>-3,75; 1,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 4,8</t>
+          <t>0,41; 4,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,47</t>
+          <t>-1,07; 2,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,6</t>
+          <t>-1,03; 2,74</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,73; 566,21</t>
+          <t>33,01; 557,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 218,23</t>
+          <t>-46,0; 216,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 408,76</t>
+          <t>-14,83; 420,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 84,5</t>
+          <t>-29,85; 89,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 78,42</t>
+          <t>-32,52; 81,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,7; 31,46</t>
+          <t>-48,3; 42,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 138,53</t>
+          <t>5,46; 139,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 74,62</t>
+          <t>-22,46; 77,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 73,37</t>
+          <t>-22,52; 81,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,42</t>
+          <t>-0,82; 3,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,61</t>
+          <t>-0,07; 4,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,1</t>
+          <t>0,04; 5,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 8,03</t>
+          <t>1,42; 7,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 2,77</t>
+          <t>-1,91; 2,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,63</t>
+          <t>-2,7; 1,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,01</t>
+          <t>0,97; 5,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 2,93</t>
+          <t>-0,38; 2,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 2,69</t>
+          <t>-0,6; 2,83</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,1; —</t>
+          <t>-93,82; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,38; —</t>
+          <t>-57,5; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,85; —</t>
+          <t>-58,18; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,23; 580,24</t>
+          <t>24,71; 578,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,18; 161,96</t>
+          <t>-56,23; 215,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-65,67; 131,97</t>
+          <t>-68,03; 113,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>43,06; 479,26</t>
+          <t>16,88; 459,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 263,72</t>
+          <t>-21,35; 327,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 272,79</t>
+          <t>-27,78; 274,33</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,68</t>
+          <t>-2,87; 1,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 4,67</t>
+          <t>-0,97; 5,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,09</t>
+          <t>-3,17; 2,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,45</t>
+          <t>-2,4; 3,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 6,55</t>
+          <t>-0,19; 6,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 45,8</t>
+          <t>-1,62; 45,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,68</t>
+          <t>-1,91; 1,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 4,54</t>
+          <t>0,23; 4,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 33,13</t>
+          <t>-1,34; 32,69</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,67; 147,19</t>
+          <t>-75,21; 144,59</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,08; 333,37</t>
+          <t>-28,6; 449,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-85,05; 181,42</t>
+          <t>-88,69; 172,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,0; 155,65</t>
+          <t>-49,43; 134,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 280,49</t>
+          <t>-9,08; 263,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 2563,23</t>
+          <t>-42,21; 2497,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-44,61; 80,57</t>
+          <t>-48,03; 80,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 210,81</t>
+          <t>1,32; 217,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-41,74; 1630,86</t>
+          <t>-42,45; 1465,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,48</t>
+          <t>-2,83; 4,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,6</t>
+          <t>-4,46; 1,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 3,86</t>
+          <t>-3,22; 4,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 6,89</t>
+          <t>-4,11; 7,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 1,05</t>
+          <t>-9,23; 0,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,03; -0,52</t>
+          <t>-9,76; -0,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 4,52</t>
+          <t>-2,54; 4,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 0,5</t>
+          <t>-5,49; 0,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 0,78</t>
+          <t>-5,21; 0,74</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,74; 259,12</t>
+          <t>-58,37; 258,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-86,3; 145,92</t>
+          <t>-84,05; 136,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,93; 277,46</t>
+          <t>-69,6; 275,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,0; 125,92</t>
+          <t>-38,56; 141,97</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-74,92; 27,92</t>
+          <t>-77,69; 18,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-78,83; -1,51</t>
+          <t>-76,87; -7,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-30,32; 110,99</t>
+          <t>-33,48; 108,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-70,3; 16,94</t>
+          <t>-71,64; 10,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,59; 23,64</t>
+          <t>-66,17; 23,39</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 5,06</t>
+          <t>-0,76; 5,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 4,9</t>
+          <t>-0,88; 5,03</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,79</t>
+          <t>-1,92; 3,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 5,13</t>
+          <t>-1,66; 5,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 5,43</t>
+          <t>-1,55; 5,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,28</t>
+          <t>-2,52; 3,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,15</t>
+          <t>-0,34; 4,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,09</t>
+          <t>-0,54; 4,14</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,62</t>
+          <t>-1,48; 2,45</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-43,98; 908,65</t>
+          <t>-46,89; 825,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 789,83</t>
+          <t>-46,81; 805,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-69,14; 600,47</t>
+          <t>-74,53; 546,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 267,47</t>
+          <t>-38,38; 262,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-46,32; 261,47</t>
+          <t>-37,18; 301,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-56,6; 191,78</t>
+          <t>-54,12; 193,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-10,68; 252,37</t>
+          <t>-13,87; 254,66</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 236,99</t>
+          <t>-19,51; 239,55</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-42,17; 164,61</t>
+          <t>-42,57; 149,87</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,39</t>
+          <t>-1,38; 1,37</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,55</t>
+          <t>-0,88; 2,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,01</t>
+          <t>-0,44; 2,87</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,27</t>
+          <t>-0,8; 3,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,15</t>
+          <t>0,73; 5,35</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 5,45</t>
+          <t>-1,02; 5,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 1,88</t>
+          <t>-0,76; 1,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,31</t>
+          <t>0,52; 3,36</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,55</t>
+          <t>0,1; 3,61</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-67,85; 167,96</t>
+          <t>-61,76; 169,71</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-49,81; 288,09</t>
+          <t>-47,57; 262,03</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-28,02; 364,11</t>
+          <t>-29,4; 341,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 183,71</t>
+          <t>-22,87; 170,73</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>11,7; 245,24</t>
+          <t>15,85; 279,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 250,02</t>
+          <t>-17,58; 246,34</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,03; 115,37</t>
+          <t>-28,48; 108,86</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>15,55; 199,37</t>
+          <t>17,38; 196,22</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>5,77; 208,6</t>
+          <t>6,71; 196,44</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,11</t>
+          <t>-2,06; 1,88</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 1,25</t>
+          <t>-2,58; 1,26</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 0,65</t>
+          <t>-3,7; 0,65</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 2,39</t>
+          <t>-1,57; 2,36</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,56</t>
+          <t>-0,49; 3,43</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,27</t>
+          <t>0,34; 4,17</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,51</t>
+          <t>-1,01; 1,68</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,76</t>
+          <t>-0,99; 1,87</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,71</t>
+          <t>-1,47; 1,9</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 78,59</t>
+          <t>-42,21; 68,44</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-50,37; 47,95</t>
+          <t>-52,61; 46,19</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-74,55; 20,34</t>
+          <t>-74,51; 20,63</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 89,52</t>
+          <t>-34,88; 83,15</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-17,38; 129,68</t>
+          <t>-14,4; 125,49</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>5,65; 153,08</t>
+          <t>5,9; 147,69</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 48,19</t>
+          <t>-23,47; 58,75</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 56,07</t>
+          <t>-23,04; 57,84</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-31,98; 51,7</t>
+          <t>-32,93; 59,43</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,87</t>
+          <t>0,21; 1,88</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,49</t>
+          <t>-0,25; 1,4</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,89</t>
+          <t>-0,16; 1,86</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,64</t>
+          <t>0,62; 2,67</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,45</t>
+          <t>0,52; 2,56</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>0,3; 10,28</t>
+          <t>0,25; 8,91</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,99</t>
+          <t>0,65; 1,98</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,74</t>
+          <t>0,42; 1,74</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,25</t>
+          <t>0,43; 5,37</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>6,84; 94,11</t>
+          <t>7,65; 96,05</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 73,57</t>
+          <t>-10,18; 68,55</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 94,63</t>
+          <t>-6,43; 91,51</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>12,61; 75,44</t>
+          <t>14,64; 80,68</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>9,21; 70,27</t>
+          <t>11,81; 75,47</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>7,34; 263,24</t>
+          <t>5,96; 253,6</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>18,32; 69,79</t>
+          <t>19,21; 69,95</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>13,65; 61,64</t>
+          <t>11,56; 59,29</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>13,49; 180,49</t>
+          <t>12,63; 164,9</t>
         </is>
       </c>
     </row>
